--- a/CashFlow/ALGN_cashflow.xlsx
+++ b/CashFlow/ALGN_cashflow.xlsx
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>544000000.0</v>
+        <v>132386000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>514000000.0</v>
+        <v>-29110000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>357506000.0</v>
+        <v>-29268000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>220412000.0</v>
+        <v>-52986000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>76011000.0</v>
+        <v>-55485000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-58269000.0</v>
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>188240000.0</v>
+        <v>480000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>52206000.0</v>
+        <v>429000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>50988000.0</v>
+        <v>316151000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>70837000.0</v>
+        <v>226919000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>53389000.0</v>
+        <v>138423000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>60240000.0</v>
